--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mccar\Desktop\teacher_pay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CEF4659F-58F0-4DAD-A5B2-4DD402C1A329}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA3892F8-37B4-48EA-84ED-5B5273F01426}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14985" windowHeight="5970" xr2:uid="{42643FB7-D4B5-4BCF-80BE-DF357334ED2F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>Pennsylvania</t>
   </si>
@@ -165,54 +165,6 @@
     <t>Hawaii</t>
   </si>
   <si>
-    <r>
-      <t>Source: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF4774CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>National Center for Education Statistics</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF999999"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF4774CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Council of Community and Economic Research</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color rgb="FF999999"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, EdBuild analysis</t>
-    </r>
-  </si>
-  <si>
-    <t>Credit: Hilary Fung/NPR</t>
-  </si>
-  <si>
     <t>Actual Pay</t>
   </si>
   <si>
@@ -222,16 +174,10 @@
     <t>State</t>
   </si>
   <si>
-    <t>Metadata</t>
-  </si>
-  <si>
     <t>Strike</t>
   </si>
   <si>
     <t>West Virginia</t>
-  </si>
-  <si>
-    <t>https://www.npr.org/sections/ed/2018/04/25/602859780/teacher-walkouts-a-state-by-state-guide</t>
   </si>
   <si>
     <t>yes</t>
@@ -256,27 +202,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
-      <color rgb="FF999999"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
-      <color rgb="FF4774CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,11 +231,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,36 +547,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B76AD6-7B4E-4029-9983-7752CA59E31C}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="91.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -658,13 +583,10 @@
         <v>51666</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -675,13 +597,10 @@
         <v>47985</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -692,15 +611,12 @@
         <v>44921</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>51199</v>
@@ -709,10 +625,10 @@
         <v>45977</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -723,10 +639,10 @@
         <v>50039</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -737,12 +653,12 @@
         <v>45477</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>71773</v>
@@ -751,12 +667,12 @@
         <v>63878</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>63938</v>
@@ -765,12 +681,12 @@
         <v>76981</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>63740</v>
@@ -779,10 +695,10 @@
         <v>56410</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -793,10 +709,10 @@
         <v>64991</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -807,10 +723,10 @@
         <v>69330</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -821,10 +737,10 @@
         <v>66482</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -835,10 +751,10 @@
         <v>54416</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -849,10 +765,10 @@
         <v>61342</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -863,7 +779,7 @@
         <v>59085</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,7 +793,7 @@
         <v>56910</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,7 +807,7 @@
         <v>54190</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,7 +821,7 @@
         <v>57761</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,7 +835,7 @@
         <v>54766</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,7 +849,7 @@
         <v>72013</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,7 +863,7 @@
         <v>60064</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -961,7 +877,7 @@
         <v>77957</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,7 +891,7 @@
         <v>50715</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,7 +905,7 @@
         <v>72842</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,12 +919,12 @@
         <v>49781</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>57432</v>
@@ -1017,7 +933,7 @@
         <v>75810</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1031,7 +947,7 @@
         <v>56943</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,7 +961,7 @@
         <v>66197</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,7 +975,7 @@
         <v>51364</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,7 +989,7 @@
         <v>48708</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,7 +1003,7 @@
         <v>51758</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1101,7 +1017,7 @@
         <v>48220</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,7 +1031,7 @@
         <v>67443</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,7 +1045,7 @@
         <v>51215</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,7 +1059,7 @@
         <v>49197</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,7 +1073,7 @@
         <v>47849</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,7 +1087,7 @@
         <v>48542</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,7 +1101,7 @@
         <v>50237</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,7 +1115,7 @@
         <v>58901</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,7 +1129,7 @@
         <v>50834</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,7 +1143,7 @@
         <v>52744</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,7 +1157,7 @@
         <v>46733</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1255,7 +1171,7 @@
         <v>45409</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,7 +1185,7 @@
         <v>49199</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1283,7 +1199,7 @@
         <v>58802</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1297,7 +1213,7 @@
         <v>52539</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1311,7 +1227,7 @@
         <v>47163</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1325,7 +1241,7 @@
         <v>46042</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1339,7 +1255,7 @@
         <v>42025</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1353,7 +1269,7 @@
         <v>50229</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1367,7 +1283,7 @@
         <v>57431</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\teacher_pay-master\teacher_pay-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B675B10B-59F4-4CCB-96EB-984C7211786B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D9171E71-07C9-401C-9C26-6D15C7DC50F8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8895" xr2:uid="{42643FB7-D4B5-4BCF-80BE-DF357334ED2F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
   <si>
     <t>Pennsylvania</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Clinton Votes</t>
+  </si>
+  <si>
+    <t>Trump Votes</t>
   </si>
 </sst>
 </file>
@@ -714,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B76AD6-7B4E-4029-9983-7752CA59E31C}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +735,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -745,8 +751,14 @@
       <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -762,8 +774,14 @@
       <c r="E2" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>718084</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1306925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -779,8 +797,14 @@
       <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>93007</v>
+      </c>
+      <c r="G3" s="1">
+        <v>130415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -796,8 +820,14 @@
       <c r="E4" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>936250</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1021154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -813,8 +843,14 @@
       <c r="E5" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>378729</v>
+      </c>
+      <c r="G5" s="1">
+        <v>677904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -830,8 +866,14 @@
       <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>7362490</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3916209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -847,8 +889,14 @@
       <c r="E7" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>1208095</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1136354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -864,8 +912,14 @@
       <c r="E8" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>884432</v>
+      </c>
+      <c r="G8" s="1">
+        <v>668266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +935,14 @@
       <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>235581</v>
+      </c>
+      <c r="G9" s="1">
+        <v>185103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -898,8 +958,14 @@
       <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>560223</v>
+      </c>
+      <c r="G10" s="1">
+        <v>11553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -915,8 +981,14 @@
       <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>4485745</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4605515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,8 +1004,14 @@
       <c r="E12" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>1837300</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2068623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -949,8 +1027,14 @@
       <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>251853</v>
+      </c>
+      <c r="G13" s="1">
+        <v>121648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -966,8 +1050,14 @@
       <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>189677</v>
+      </c>
+      <c r="G14" s="1">
+        <v>407199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -983,8 +1073,14 @@
       <c r="E15" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>2977498</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2118179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1000,8 +1096,14 @@
       <c r="E16" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>1031953</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1556220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1017,8 +1119,14 @@
       <c r="E17" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>650790</v>
+      </c>
+      <c r="G17" s="1">
+        <v>798923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -1034,8 +1142,14 @@
       <c r="E18" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>414788</v>
+      </c>
+      <c r="G18" s="1">
+        <v>656009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1051,8 +1165,14 @@
       <c r="E19" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>628834</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1202942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1068,8 +1188,14 @@
       <c r="E20" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>779535</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1178004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1085,8 +1211,14 @@
       <c r="E21" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>354873</v>
+      </c>
+      <c r="G21" s="1">
+        <v>334838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1102,8 +1234,14 @@
       <c r="E22" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>1497951</v>
+      </c>
+      <c r="G22" s="1">
+        <v>873646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -1119,8 +1257,14 @@
       <c r="E23" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>1964768</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1083069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -1136,8 +1280,14 @@
       <c r="E24" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>2268193</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2279805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -1153,8 +1303,14 @@
       <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>1366676</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1322891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1170,8 +1326,14 @@
       <c r="E26" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>462001</v>
+      </c>
+      <c r="G26" s="1">
+        <v>678457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1187,8 +1349,14 @@
       <c r="E27" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1">
+        <v>1054889</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1585753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -1204,8 +1372,14 @@
       <c r="E28" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>175521</v>
+      </c>
+      <c r="G28" s="1">
+        <v>274120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -1221,8 +1395,14 @@
       <c r="E29" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>273858</v>
+      </c>
+      <c r="G29" s="1">
+        <v>485819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -1238,8 +1418,14 @@
       <c r="E30" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1">
+        <v>537753</v>
+      </c>
+      <c r="G30" s="1">
+        <v>511319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1255,8 +1441,14 @@
       <c r="E31" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1">
+        <v>348521</v>
+      </c>
+      <c r="G31" s="1">
+        <v>345789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1272,8 +1464,14 @@
       <c r="E32" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1">
+        <v>2021756</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1535513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -1289,8 +1487,14 @@
       <c r="E33" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>380724</v>
+      </c>
+      <c r="G33" s="1">
+        <v>315875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1306,8 +1510,14 @@
       <c r="E34" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>4143874</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2640570</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1323,8 +1533,14 @@
       <c r="E35" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>2162074</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2339603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
@@ -1340,8 +1556,14 @@
       <c r="E36" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="1">
+        <v>216133</v>
+      </c>
+      <c r="G36" s="1">
+        <v>93526</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
@@ -1357,8 +1579,14 @@
       <c r="E37" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
+        <v>2317001</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2771984</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -1374,8 +1602,14 @@
       <c r="E38" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="1">
+        <v>419788</v>
+      </c>
+      <c r="G38" s="1">
+        <v>947934</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -1391,8 +1625,14 @@
       <c r="E39" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="1">
+        <v>934631</v>
+      </c>
+      <c r="G39" s="1">
+        <v>742506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1408,8 +1648,14 @@
       <c r="E40" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="1">
+        <v>2844705</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2912941</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -1425,8 +1671,14 @@
       <c r="E41" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="1">
+        <v>249902</v>
+      </c>
+      <c r="G41" s="1">
+        <v>179421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
@@ -1442,8 +1694,14 @@
       <c r="E42" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="1">
+        <v>849469</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1143611</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1459,8 +1717,14 @@
       <c r="E43" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="1">
+        <v>177442</v>
+      </c>
+      <c r="G43" s="1">
+        <v>227701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1476,8 +1740,14 @@
       <c r="E44" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="1">
+        <v>867110</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1517402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -1493,8 +1763,14 @@
       <c r="E45" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="1">
+        <v>3867816</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4681590</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
@@ -1510,8 +1786,14 @@
       <c r="E46" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="1">
+        <v>274188</v>
+      </c>
+      <c r="G46" s="1">
+        <v>452086</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -1527,8 +1809,14 @@
       <c r="E47" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="1">
+        <v>178179</v>
+      </c>
+      <c r="G47" s="1">
+        <v>95053</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>30</v>
       </c>
@@ -1544,8 +1832,14 @@
       <c r="E48" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="1">
+        <v>1916845</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1731156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
@@ -1561,8 +1855,14 @@
       <c r="E49" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="1">
+        <v>1610524</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1129120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1578,8 +1878,14 @@
       <c r="E50" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="1">
+        <v>187457</v>
+      </c>
+      <c r="G50" s="1">
+        <v>486198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -1595,8 +1901,14 @@
       <c r="E51" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="1">
+        <v>1382210</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1409467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -1611,6 +1923,12 @@
       </c>
       <c r="E52" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="F52" s="1">
+        <v>55949</v>
+      </c>
+      <c r="G52" s="1">
+        <v>174248</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\teacher_pay-master\teacher_pay-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D9171E71-07C9-401C-9C26-6D15C7DC50F8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{561405FF-CFE6-41A2-B1FE-0445CBF2BDB5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8895" xr2:uid="{42643FB7-D4B5-4BCF-80BE-DF357334ED2F}"/>
   </bookViews>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B76AD6-7B4E-4029-9983-7752CA59E31C}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,10 +1557,10 @@
         <v>52</v>
       </c>
       <c r="F36" s="1">
+        <v>95526</v>
+      </c>
+      <c r="G36" s="1">
         <v>216133</v>
-      </c>
-      <c r="G36" s="1">
-        <v>93526</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
